--- a/sprint10/dades_GrupC.xlsx
+++ b/sprint10/dades_GrupC.xlsx
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2.007</v>
+        <v>2007</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -616,7 +616,7 @@
         <v>0.02</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04714</v>
+        <v>2047.14</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2.605</v>
+        <v>2605</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0.02</v>
       </c>
       <c r="T3" t="n">
-        <v>2.6571</v>
+        <v>2657.1</v>
       </c>
     </row>
     <row r="4">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2.249</v>
+        <v>2249</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
@@ -776,7 +776,7 @@
         <v>0.02</v>
       </c>
       <c r="T4" t="n">
-        <v>2.29398</v>
+        <v>2293.98</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2.584</v>
+        <v>2584</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>0.02</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63568</v>
+        <v>2635.68</v>
       </c>
     </row>
     <row r="6">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2800</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0.02</v>
       </c>
       <c r="T6" t="n">
-        <v>2.856</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="7">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2.481</v>
+        <v>2481</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
@@ -1016,7 +1016,7 @@
         <v>0.02</v>
       </c>
       <c r="T7" t="n">
-        <v>2.53062</v>
+        <v>2530.62</v>
       </c>
     </row>
     <row r="8">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.063</v>
+        <v>2063</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0.02</v>
       </c>
       <c r="T8" t="n">
-        <v>2.10426</v>
+        <v>2104.26</v>
       </c>
     </row>
     <row r="9">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2.091</v>
+        <v>2091</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
@@ -1176,7 +1176,7 @@
         <v>0.02</v>
       </c>
       <c r="T9" t="n">
-        <v>2.13282</v>
+        <v>2132.82</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.549</v>
+        <v>2549</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1256,7 +1256,7 @@
         <v>0.02</v>
       </c>
       <c r="T10" t="n">
-        <v>2.59998</v>
+        <v>2599.98</v>
       </c>
     </row>
     <row r="11">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.929</v>
+        <v>1929</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -1336,7 +1336,7 @@
         <v>0.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96758</v>
+        <v>1967.58</v>
       </c>
     </row>
     <row r="12">
@@ -1375,7 +1375,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2.423</v>
+        <v>2423</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -1416,7 +1416,7 @@
         <v>0.02</v>
       </c>
       <c r="T12" t="n">
-        <v>2.47146</v>
+        <v>2471.46</v>
       </c>
     </row>
     <row r="13">
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.176</v>
+        <v>2176</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0.02</v>
       </c>
       <c r="T13" t="n">
-        <v>2.21952</v>
+        <v>2219.52</v>
       </c>
     </row>
     <row r="14">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1.987</v>
+        <v>1987</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
@@ -1576,7 +1576,7 @@
         <v>0.02</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02674</v>
+        <v>2026.74</v>
       </c>
     </row>
     <row r="15">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2.722</v>
+        <v>2722</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
@@ -1656,7 +1656,7 @@
         <v>0.02</v>
       </c>
       <c r="T15" t="n">
-        <v>2.77644</v>
+        <v>2776.44</v>
       </c>
     </row>
     <row r="16">
@@ -1695,7 +1695,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1.532</v>
+        <v>1532</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
@@ -1736,7 +1736,7 @@
         <v>0.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56264</v>
+        <v>1562.64</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2.805</v>
+        <v>2805</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
@@ -1816,7 +1816,7 @@
         <v>0.02</v>
       </c>
       <c r="T17" t="n">
-        <v>2.8611</v>
+        <v>2861.1</v>
       </c>
     </row>
     <row r="18">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2.639</v>
+        <v>2639</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
@@ -1896,7 +1896,7 @@
         <v>0.02</v>
       </c>
       <c r="T18" t="n">
-        <v>2.69178</v>
+        <v>2691.78</v>
       </c>
     </row>
     <row r="19">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2.714</v>
+        <v>2714</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0.02</v>
       </c>
       <c r="T19" t="n">
-        <v>2.76828</v>
+        <v>2768.28</v>
       </c>
     </row>
     <row r="20">
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2.46</v>
+        <v>2460</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>0.02</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5092</v>
+        <v>2509.2</v>
       </c>
     </row>
     <row r="21">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2.157</v>
+        <v>2157</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
@@ -2136,7 +2136,7 @@
         <v>0.02</v>
       </c>
       <c r="T21" t="n">
-        <v>2.20014</v>
+        <v>2200.14</v>
       </c>
     </row>
     <row r="22">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2.736</v>
+        <v>2736</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
@@ -2216,7 +2216,7 @@
         <v>0.02</v>
       </c>
       <c r="T22" t="n">
-        <v>2.79072</v>
+        <v>2790.72</v>
       </c>
     </row>
     <row r="23">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.532</v>
+        <v>1532</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
@@ -2296,7 +2296,7 @@
         <v>0.02</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56264</v>
+        <v>1562.64</v>
       </c>
     </row>
     <row r="24">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2.597</v>
+        <v>2597</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -2376,7 +2376,7 @@
         <v>0.02</v>
       </c>
       <c r="T24" t="n">
-        <v>2.64894</v>
+        <v>2648.94</v>
       </c>
     </row>
     <row r="25">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2.628</v>
+        <v>2628</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
@@ -2456,7 +2456,7 @@
         <v>0.02</v>
       </c>
       <c r="T25" t="n">
-        <v>2.68056</v>
+        <v>2680.56</v>
       </c>
     </row>
     <row r="26">
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2.543</v>
+        <v>2543</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
@@ -2536,7 +2536,7 @@
         <v>0.02</v>
       </c>
       <c r="T26" t="n">
-        <v>2.59386</v>
+        <v>2593.86</v>
       </c>
     </row>
     <row r="27">
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2.356</v>
+        <v>2356</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
@@ -2616,7 +2616,7 @@
         <v>0.02</v>
       </c>
       <c r="T27" t="n">
-        <v>2.40312</v>
+        <v>2403.12</v>
       </c>
     </row>
     <row r="28">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2.57</v>
+        <v>2570</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>0.02</v>
       </c>
       <c r="T28" t="n">
-        <v>2.6214</v>
+        <v>2621.4</v>
       </c>
     </row>
     <row r="29">
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2.526</v>
+        <v>2526</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>0.02</v>
       </c>
       <c r="T29" t="n">
-        <v>2.57652</v>
+        <v>2576.52</v>
       </c>
     </row>
     <row r="30">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2.452</v>
+        <v>2452</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2856,7 +2856,7 @@
         <v>0.02</v>
       </c>
       <c r="T30" t="n">
-        <v>2.50104</v>
+        <v>2501.04</v>
       </c>
     </row>
     <row r="31">
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.393</v>
+        <v>2393</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>0.02</v>
       </c>
       <c r="T31" t="n">
-        <v>2.44086</v>
+        <v>2440.86</v>
       </c>
     </row>
     <row r="32">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2.18</v>
+        <v>2180</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>0.02</v>
       </c>
       <c r="T32" t="n">
-        <v>2.2236</v>
+        <v>2223.6</v>
       </c>
     </row>
     <row r="33">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1.994</v>
+        <v>1994</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>0.02</v>
       </c>
       <c r="T33" t="n">
-        <v>2.03388</v>
+        <v>2033.88</v>
       </c>
     </row>
     <row r="34">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
@@ -3176,7 +3176,7 @@
         <v>0.02</v>
       </c>
       <c r="T34" t="n">
-        <v>1.836</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="35">
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2.217</v>
+        <v>2217</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
@@ -3256,7 +3256,7 @@
         <v>0.02</v>
       </c>
       <c r="T35" t="n">
-        <v>2.26134</v>
+        <v>2261.34</v>
       </c>
     </row>
     <row r="36">
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2.069</v>
+        <v>2069</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
@@ -3336,7 +3336,7 @@
         <v>0.02</v>
       </c>
       <c r="T36" t="n">
-        <v>2.11038</v>
+        <v>2110.38</v>
       </c>
     </row>
     <row r="37">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2.326</v>
+        <v>2326</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>0.02</v>
       </c>
       <c r="T37" t="n">
-        <v>2.37252</v>
+        <v>2372.52</v>
       </c>
     </row>
     <row r="38">
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2.788</v>
+        <v>2788</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -3496,7 +3496,7 @@
         <v>0.02</v>
       </c>
       <c r="T38" t="n">
-        <v>2.84376</v>
+        <v>2843.76</v>
       </c>
     </row>
     <row r="39">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2.06</v>
+        <v>2060</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>0.02</v>
       </c>
       <c r="T39" t="n">
-        <v>2.1012</v>
+        <v>2101.2</v>
       </c>
     </row>
     <row r="40">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1.696</v>
+        <v>1696</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -3656,7 +3656,7 @@
         <v>0.02</v>
       </c>
       <c r="T40" t="n">
-        <v>1.72992</v>
+        <v>1729.92</v>
       </c>
     </row>
     <row r="41">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1.87</v>
+        <v>1870</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
@@ -3736,7 +3736,7 @@
         <v>0.02</v>
       </c>
       <c r="T41" t="n">
-        <v>1.9074</v>
+        <v>1907.4</v>
       </c>
     </row>
     <row r="42">
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2.547</v>
+        <v>2547</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -3816,7 +3816,7 @@
         <v>0.02</v>
       </c>
       <c r="T42" t="n">
-        <v>2.59794</v>
+        <v>2597.94</v>
       </c>
     </row>
     <row r="43">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2.397</v>
+        <v>2397</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
@@ -3896,7 +3896,7 @@
         <v>0.02</v>
       </c>
       <c r="T43" t="n">
-        <v>2.44494</v>
+        <v>2444.94</v>
       </c>
     </row>
     <row r="44">
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.844</v>
+        <v>1844</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         <v>0.02</v>
       </c>
       <c r="T44" t="n">
-        <v>1.88088</v>
+        <v>1880.88</v>
       </c>
     </row>
     <row r="45">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1.786</v>
+        <v>1786</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
@@ -4056,7 +4056,7 @@
         <v>0.02</v>
       </c>
       <c r="T45" t="n">
-        <v>1.82172</v>
+        <v>1821.72</v>
       </c>
     </row>
     <row r="46">
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2.517</v>
+        <v>2517</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>0.02</v>
       </c>
       <c r="T46" t="n">
-        <v>2.56734</v>
+        <v>2567.34</v>
       </c>
     </row>
     <row r="47">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2.208</v>
+        <v>2208</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
@@ -4216,7 +4216,7 @@
         <v>0.02</v>
       </c>
       <c r="T47" t="n">
-        <v>2.25216</v>
+        <v>2252.16</v>
       </c>
     </row>
     <row r="48">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2.725</v>
+        <v>2725</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
@@ -4296,7 +4296,7 @@
         <v>0.02</v>
       </c>
       <c r="T48" t="n">
-        <v>2.7795</v>
+        <v>2779.5</v>
       </c>
     </row>
     <row r="49">
@@ -4335,7 +4335,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1.732</v>
+        <v>1732</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
@@ -4376,7 +4376,7 @@
         <v>0.02</v>
       </c>
       <c r="T49" t="n">
-        <v>1.76664</v>
+        <v>1766.64</v>
       </c>
     </row>
     <row r="50">
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2.311</v>
+        <v>2311</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
@@ -4456,7 +4456,7 @@
         <v>0.02</v>
       </c>
       <c r="T50" t="n">
-        <v>2.35722</v>
+        <v>2357.22</v>
       </c>
     </row>
     <row r="51">
@@ -4495,7 +4495,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2.656</v>
+        <v>2656</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -4536,7 +4536,7 @@
         <v>0.02</v>
       </c>
       <c r="T51" t="n">
-        <v>2.70912</v>
+        <v>2709.12</v>
       </c>
     </row>
     <row r="52">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2.143</v>
+        <v>2143</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -4616,7 +4616,7 @@
         <v>0.02</v>
       </c>
       <c r="T52" t="n">
-        <v>2.18586</v>
+        <v>2185.86</v>
       </c>
     </row>
     <row r="53">
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1.862</v>
+        <v>1862</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
@@ -4696,7 +4696,7 @@
         <v>0.02</v>
       </c>
       <c r="T53" t="n">
-        <v>1.89924</v>
+        <v>1899.24</v>
       </c>
     </row>
     <row r="54">
@@ -4735,7 +4735,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2.225</v>
+        <v>2225</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>0.02</v>
       </c>
       <c r="T54" t="n">
-        <v>2.2695</v>
+        <v>2269.5</v>
       </c>
     </row>
     <row r="55">
@@ -4815,7 +4815,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2.405</v>
+        <v>2405</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>0.02</v>
       </c>
       <c r="T55" t="n">
-        <v>2.4531</v>
+        <v>2453.1</v>
       </c>
     </row>
     <row r="56">
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2.464</v>
+        <v>2464</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
@@ -4936,7 +4936,7 @@
         <v>0.02</v>
       </c>
       <c r="T56" t="n">
-        <v>2.51328</v>
+        <v>2513.28</v>
       </c>
     </row>
     <row r="57">
@@ -4975,7 +4975,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1.939</v>
+        <v>1939</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
@@ -5016,7 +5016,7 @@
         <v>0.02</v>
       </c>
       <c r="T57" t="n">
-        <v>1.97778</v>
+        <v>1977.78</v>
       </c>
     </row>
     <row r="58">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2.789</v>
+        <v>2789</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
@@ -5096,7 +5096,7 @@
         <v>0.02</v>
       </c>
       <c r="T58" t="n">
-        <v>2.84478</v>
+        <v>2844.78</v>
       </c>
     </row>
     <row r="59">
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2.642</v>
+        <v>2642</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
@@ -5176,7 +5176,7 @@
         <v>0.02</v>
       </c>
       <c r="T59" t="n">
-        <v>2.69484</v>
+        <v>2694.84</v>
       </c>
     </row>
     <row r="60">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2.28</v>
+        <v>2280</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>0.02</v>
       </c>
       <c r="T60" t="n">
-        <v>2.3256</v>
+        <v>2325.6</v>
       </c>
     </row>
     <row r="61">
@@ -5295,7 +5295,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2.035</v>
+        <v>2035</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>0.02</v>
       </c>
       <c r="T61" t="n">
-        <v>2.0757</v>
+        <v>2075.7</v>
       </c>
     </row>
     <row r="62">
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1.69</v>
+        <v>1690</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -5416,7 +5416,7 @@
         <v>0.02</v>
       </c>
       <c r="T62" t="n">
-        <v>1.7238</v>
+        <v>1723.8</v>
       </c>
     </row>
     <row r="63">
@@ -5455,7 +5455,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2.78</v>
+        <v>2780</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>0.02</v>
       </c>
       <c r="T63" t="n">
-        <v>2.8356</v>
+        <v>2835.6</v>
       </c>
     </row>
     <row r="64">
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.761</v>
+        <v>1761</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
@@ -5576,7 +5576,7 @@
         <v>0.02</v>
       </c>
       <c r="T64" t="n">
-        <v>1.79622</v>
+        <v>1796.22</v>
       </c>
     </row>
     <row r="65">
@@ -5615,7 +5615,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2.616</v>
+        <v>2616</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -5656,7 +5656,7 @@
         <v>0.02</v>
       </c>
       <c r="T65" t="n">
-        <v>2.66832</v>
+        <v>2668.32</v>
       </c>
     </row>
     <row r="66">
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2.391</v>
+        <v>2391</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v>0.02</v>
       </c>
       <c r="T66" t="n">
-        <v>2.43882</v>
+        <v>2438.82</v>
       </c>
     </row>
     <row r="67">
@@ -5775,7 +5775,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2.293</v>
+        <v>2293</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
@@ -5816,7 +5816,7 @@
         <v>0.02</v>
       </c>
       <c r="T67" t="n">
-        <v>2.33886</v>
+        <v>2338.86</v>
       </c>
     </row>
     <row r="68">
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1.844</v>
+        <v>1844</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
@@ -5896,7 +5896,7 @@
         <v>0.02</v>
       </c>
       <c r="T68" t="n">
-        <v>1.88088</v>
+        <v>1880.88</v>
       </c>
     </row>
     <row r="69">
@@ -5935,7 +5935,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2.413</v>
+        <v>2413</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
@@ -5976,7 +5976,7 @@
         <v>0.02</v>
       </c>
       <c r="T69" t="n">
-        <v>2.46126</v>
+        <v>2461.26</v>
       </c>
     </row>
     <row r="70">
@@ -6015,7 +6015,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1.835</v>
+        <v>1835</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
@@ -6056,7 +6056,7 @@
         <v>0.02</v>
       </c>
       <c r="T70" t="n">
-        <v>1.8717</v>
+        <v>1871.7</v>
       </c>
     </row>
     <row r="71">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1.922</v>
+        <v>1922</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -6136,7 +6136,7 @@
         <v>0.02</v>
       </c>
       <c r="T71" t="n">
-        <v>1.96044</v>
+        <v>1960.44</v>
       </c>
     </row>
     <row r="72">
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1.743</v>
+        <v>1743</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -6216,7 +6216,7 @@
         <v>0.02</v>
       </c>
       <c r="T72" t="n">
-        <v>1.77786</v>
+        <v>1777.86</v>
       </c>
     </row>
     <row r="73">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2.019</v>
+        <v>2019</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -6296,7 +6296,7 @@
         <v>0.02</v>
       </c>
       <c r="T73" t="n">
-        <v>2.05938</v>
+        <v>2059.38</v>
       </c>
     </row>
     <row r="74">
@@ -6335,7 +6335,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2.247</v>
+        <v>2247</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -6376,7 +6376,7 @@
         <v>0.02</v>
       </c>
       <c r="T74" t="n">
-        <v>2.29194</v>
+        <v>2291.94</v>
       </c>
     </row>
     <row r="75">
@@ -6415,7 +6415,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2.034</v>
+        <v>2034</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
@@ -6456,7 +6456,7 @@
         <v>0.02</v>
       </c>
       <c r="T75" t="n">
-        <v>2.07468</v>
+        <v>2074.68</v>
       </c>
     </row>
     <row r="76">
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2.164</v>
+        <v>2164</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
@@ -6536,7 +6536,7 @@
         <v>0.02</v>
       </c>
       <c r="T76" t="n">
-        <v>2.20728</v>
+        <v>2207.28</v>
       </c>
     </row>
     <row r="77">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1.685</v>
+        <v>1685</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -6616,7 +6616,7 @@
         <v>0.02</v>
       </c>
       <c r="T77" t="n">
-        <v>1.7187</v>
+        <v>1718.7</v>
       </c>
     </row>
     <row r="78">
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2.049</v>
+        <v>2049</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
@@ -6696,7 +6696,7 @@
         <v>0.02</v>
       </c>
       <c r="T78" t="n">
-        <v>2.08998</v>
+        <v>2089.98</v>
       </c>
     </row>
     <row r="79">
@@ -6735,7 +6735,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2.514</v>
+        <v>2514</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
@@ -6776,7 +6776,7 @@
         <v>0.02</v>
       </c>
       <c r="T79" t="n">
-        <v>2.56428</v>
+        <v>2564.28</v>
       </c>
     </row>
     <row r="80">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2.39</v>
+        <v>2390</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
@@ -6856,7 +6856,7 @@
         <v>0.02</v>
       </c>
       <c r="T80" t="n">
-        <v>2.4378</v>
+        <v>2437.8</v>
       </c>
     </row>
     <row r="81">
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2.283</v>
+        <v>2283</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -6936,7 +6936,7 @@
         <v>0.02</v>
       </c>
       <c r="T81" t="n">
-        <v>2.32866</v>
+        <v>2328.66</v>
       </c>
     </row>
     <row r="82">
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2.169</v>
+        <v>2169</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>0.02</v>
       </c>
       <c r="T82" t="n">
-        <v>2.21238</v>
+        <v>2212.38</v>
       </c>
     </row>
     <row r="83">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2.366</v>
+        <v>2366</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -7096,7 +7096,7 @@
         <v>0.02</v>
       </c>
       <c r="T83" t="n">
-        <v>2.41332</v>
+        <v>2413.32</v>
       </c>
     </row>
     <row r="84">
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2.06</v>
+        <v>2060</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -7176,7 +7176,7 @@
         <v>0.02</v>
       </c>
       <c r="T84" t="n">
-        <v>2.1012</v>
+        <v>2101.2</v>
       </c>
     </row>
     <row r="85">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2.458</v>
+        <v>2458</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
@@ -7256,7 +7256,7 @@
         <v>0.02</v>
       </c>
       <c r="T85" t="n">
-        <v>2.50716</v>
+        <v>2507.16</v>
       </c>
     </row>
     <row r="86">
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1.948</v>
+        <v>1948</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -7336,7 +7336,7 @@
         <v>0.02</v>
       </c>
       <c r="T86" t="n">
-        <v>1.98696</v>
+        <v>1986.96</v>
       </c>
     </row>
     <row r="87">
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2.351</v>
+        <v>2351</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -7405,7 +7405,7 @@
         <v>26241</v>
       </c>
       <c r="Q87" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>0.02</v>
       </c>
       <c r="T87" t="n">
-        <v>2.39802</v>
+        <v>2398.02</v>
       </c>
     </row>
     <row r="88">
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1.963</v>
+        <v>1963</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
@@ -7496,7 +7496,7 @@
         <v>0.02</v>
       </c>
       <c r="T88" t="n">
-        <v>2.00226</v>
+        <v>2002.26</v>
       </c>
     </row>
     <row r="89">
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2.539</v>
+        <v>2539</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
@@ -7576,7 +7576,7 @@
         <v>0.02</v>
       </c>
       <c r="T89" t="n">
-        <v>2.58978</v>
+        <v>2589.78</v>
       </c>
     </row>
     <row r="90">
@@ -7615,7 +7615,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1.904</v>
+        <v>1904</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -7656,7 +7656,7 @@
         <v>0.02</v>
       </c>
       <c r="T90" t="n">
-        <v>1.94208</v>
+        <v>1942.08</v>
       </c>
     </row>
     <row r="91">
@@ -7695,7 +7695,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2.51</v>
+        <v>2510</v>
       </c>
       <c r="J91" t="n">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>0.02</v>
       </c>
       <c r="T91" t="n">
-        <v>2.5602</v>
+        <v>2560.2</v>
       </c>
     </row>
     <row r="92">
@@ -7775,7 +7775,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1.928</v>
+        <v>1928</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
@@ -7816,7 +7816,7 @@
         <v>0.02</v>
       </c>
       <c r="T92" t="n">
-        <v>1.96656</v>
+        <v>1966.56</v>
       </c>
     </row>
     <row r="93">
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2.843</v>
+        <v>2843</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>0.02</v>
       </c>
       <c r="T93" t="n">
-        <v>2.89986</v>
+        <v>2899.86</v>
       </c>
     </row>
     <row r="94">
@@ -7935,7 +7935,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2.201</v>
+        <v>2201</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -7976,7 +7976,7 @@
         <v>0.02</v>
       </c>
       <c r="T94" t="n">
-        <v>2.24502</v>
+        <v>2245.02</v>
       </c>
     </row>
     <row r="95">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2.185</v>
+        <v>2185</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -8056,7 +8056,7 @@
         <v>0.02</v>
       </c>
       <c r="T95" t="n">
-        <v>2.2287</v>
+        <v>2228.7</v>
       </c>
     </row>
     <row r="96">
@@ -8095,7 +8095,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2.485</v>
+        <v>2485</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
@@ -8136,7 +8136,7 @@
         <v>0.02</v>
       </c>
       <c r="T96" t="n">
-        <v>2.5347</v>
+        <v>2534.7</v>
       </c>
     </row>
     <row r="97">
@@ -8175,7 +8175,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1.928</v>
+        <v>1928</v>
       </c>
       <c r="J97" t="n">
         <v>1</v>
@@ -8216,7 +8216,7 @@
         <v>0.02</v>
       </c>
       <c r="T97" t="n">
-        <v>1.96656</v>
+        <v>1966.56</v>
       </c>
     </row>
     <row r="98">
@@ -8255,7 +8255,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2.73</v>
+        <v>2730</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -8296,7 +8296,7 @@
         <v>0.02</v>
       </c>
       <c r="T98" t="n">
-        <v>2.7846</v>
+        <v>2784.6</v>
       </c>
     </row>
     <row r="99">
@@ -8335,7 +8335,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2.817</v>
+        <v>2817</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
@@ -8376,7 +8376,7 @@
         <v>0.02</v>
       </c>
       <c r="T99" t="n">
-        <v>2.87334</v>
+        <v>2873.34</v>
       </c>
     </row>
     <row r="100">
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1.962</v>
+        <v>1962</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
@@ -8456,7 +8456,7 @@
         <v>0.02</v>
       </c>
       <c r="T100" t="n">
-        <v>2.00124</v>
+        <v>2001.24</v>
       </c>
     </row>
     <row r="101">
@@ -8495,7 +8495,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2.856</v>
+        <v>2856</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
@@ -8536,7 +8536,7 @@
         <v>0.02</v>
       </c>
       <c r="T101" t="n">
-        <v>2.91312</v>
+        <v>2913.12</v>
       </c>
     </row>
     <row r="102">
@@ -8575,7 +8575,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2.765</v>
+        <v>2765</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
@@ -8616,7 +8616,7 @@
         <v>0.02</v>
       </c>
       <c r="T102" t="n">
-        <v>2.8203</v>
+        <v>2820.3</v>
       </c>
     </row>
     <row r="103">
@@ -8655,7 +8655,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1.761</v>
+        <v>1761</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
@@ -8696,7 +8696,7 @@
         <v>0.02</v>
       </c>
       <c r="T103" t="n">
-        <v>1.79622</v>
+        <v>1796.22</v>
       </c>
     </row>
     <row r="104">
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1.96</v>
+        <v>1960</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -8776,7 +8776,7 @@
         <v>0.02</v>
       </c>
       <c r="T104" t="n">
-        <v>1.9992</v>
+        <v>1999.2</v>
       </c>
     </row>
     <row r="105">
@@ -8815,7 +8815,7 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2.346</v>
+        <v>2346</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -8856,7 +8856,7 @@
         <v>0.02</v>
       </c>
       <c r="T105" t="n">
-        <v>2.39292</v>
+        <v>2392.92</v>
       </c>
     </row>
     <row r="106">
@@ -8895,7 +8895,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2.306</v>
+        <v>2306</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
@@ -8936,7 +8936,7 @@
         <v>0.02</v>
       </c>
       <c r="T106" t="n">
-        <v>2.35212</v>
+        <v>2352.12</v>
       </c>
     </row>
     <row r="107">
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2.447</v>
+        <v>2447</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -9016,7 +9016,7 @@
         <v>0.02</v>
       </c>
       <c r="T107" t="n">
-        <v>2.49594</v>
+        <v>2495.94</v>
       </c>
     </row>
     <row r="108">
@@ -9055,7 +9055,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2.662</v>
+        <v>2662</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -9096,7 +9096,7 @@
         <v>0.02</v>
       </c>
       <c r="T108" t="n">
-        <v>2.71524</v>
+        <v>2715.24</v>
       </c>
     </row>
     <row r="109">
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2.294</v>
+        <v>2294</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
@@ -9176,7 +9176,7 @@
         <v>0.02</v>
       </c>
       <c r="T109" t="n">
-        <v>2.33988</v>
+        <v>2339.88</v>
       </c>
     </row>
     <row r="110">
@@ -9215,7 +9215,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1.86</v>
+        <v>1860</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
@@ -9256,7 +9256,7 @@
         <v>0.02</v>
       </c>
       <c r="T110" t="n">
-        <v>1.8972</v>
+        <v>1897.2</v>
       </c>
     </row>
     <row r="111">
@@ -9295,7 +9295,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2.03</v>
+        <v>2030</v>
       </c>
       <c r="J111" t="n">
         <v>1</v>
@@ -9336,7 +9336,7 @@
         <v>0.02</v>
       </c>
       <c r="T111" t="n">
-        <v>2.0706</v>
+        <v>2070.6</v>
       </c>
     </row>
     <row r="112">
@@ -9375,7 +9375,7 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2.685</v>
+        <v>2685</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
@@ -9416,7 +9416,7 @@
         <v>0.02</v>
       </c>
       <c r="T112" t="n">
-        <v>2.7387</v>
+        <v>2738.7</v>
       </c>
     </row>
     <row r="113">
@@ -9455,7 +9455,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1.95</v>
+        <v>1950</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
@@ -9496,7 +9496,7 @@
         <v>0.02</v>
       </c>
       <c r="T113" t="n">
-        <v>1.989</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="114">
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2.295</v>
+        <v>2295</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -9576,7 +9576,7 @@
         <v>0.02</v>
       </c>
       <c r="T114" t="n">
-        <v>2.3409</v>
+        <v>2340.9</v>
       </c>
     </row>
     <row r="115">
@@ -9615,7 +9615,7 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1.901</v>
+        <v>1901</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
@@ -9656,7 +9656,7 @@
         <v>0.02</v>
       </c>
       <c r="T115" t="n">
-        <v>1.93902</v>
+        <v>1939.02</v>
       </c>
     </row>
     <row r="116">
@@ -9695,7 +9695,7 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2.316</v>
+        <v>2316</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
@@ -9736,7 +9736,7 @@
         <v>0.02</v>
       </c>
       <c r="T116" t="n">
-        <v>2.36232</v>
+        <v>2362.32</v>
       </c>
     </row>
     <row r="117">
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2.912</v>
+        <v>2912</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
@@ -9816,7 +9816,7 @@
         <v>0.02</v>
       </c>
       <c r="T117" t="n">
-        <v>2.97024</v>
+        <v>2970.24</v>
       </c>
     </row>
     <row r="118">
@@ -9855,7 +9855,7 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1.744</v>
+        <v>1744</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
@@ -9896,7 +9896,7 @@
         <v>0.02</v>
       </c>
       <c r="T118" t="n">
-        <v>1.77888</v>
+        <v>1778.88</v>
       </c>
     </row>
     <row r="119">
@@ -9935,7 +9935,7 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2.259</v>
+        <v>2259</v>
       </c>
       <c r="J119" t="n">
         <v>1</v>
@@ -9976,7 +9976,7 @@
         <v>0.02</v>
       </c>
       <c r="T119" t="n">
-        <v>2.30418</v>
+        <v>2304.18</v>
       </c>
     </row>
     <row r="120">
@@ -10015,7 +10015,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2.39</v>
+        <v>2390</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
@@ -10056,7 +10056,7 @@
         <v>0.02</v>
       </c>
       <c r="T120" t="n">
-        <v>2.4378</v>
+        <v>2437.8</v>
       </c>
     </row>
     <row r="121">
@@ -10095,7 +10095,7 @@
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2.36</v>
+        <v>2360</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -10136,7 +10136,7 @@
         <v>0.02</v>
       </c>
       <c r="T121" t="n">
-        <v>2.4072</v>
+        <v>2407.2</v>
       </c>
     </row>
     <row r="122">
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2.189</v>
+        <v>2189</v>
       </c>
       <c r="J122" t="n">
         <v>1</v>
@@ -10216,7 +10216,7 @@
         <v>0.02</v>
       </c>
       <c r="T122" t="n">
-        <v>2.23278</v>
+        <v>2232.78</v>
       </c>
     </row>
     <row r="123">
@@ -10255,7 +10255,7 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1.824</v>
+        <v>1824</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>0.02</v>
       </c>
       <c r="T123" t="n">
-        <v>1.86048</v>
+        <v>1860.48</v>
       </c>
     </row>
     <row r="124">
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>2.016</v>
+        <v>2016</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
@@ -10376,7 +10376,7 @@
         <v>0.02</v>
       </c>
       <c r="T124" t="n">
-        <v>2.05632</v>
+        <v>2056.32</v>
       </c>
     </row>
     <row r="125">
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>2.607</v>
+        <v>2607</v>
       </c>
       <c r="J125" t="n">
         <v>1</v>
@@ -10456,7 +10456,7 @@
         <v>0.02</v>
       </c>
       <c r="T125" t="n">
-        <v>2.65914</v>
+        <v>2659.14</v>
       </c>
     </row>
     <row r="126">
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2.255</v>
+        <v>2255</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -10536,7 +10536,7 @@
         <v>0.02</v>
       </c>
       <c r="T126" t="n">
-        <v>2.3001</v>
+        <v>2300.1</v>
       </c>
     </row>
     <row r="127">
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2.443</v>
+        <v>2443</v>
       </c>
       <c r="J127" t="n">
         <v>1</v>
@@ -10616,7 +10616,7 @@
         <v>0.02</v>
       </c>
       <c r="T127" t="n">
-        <v>2.49186</v>
+        <v>2491.86</v>
       </c>
     </row>
     <row r="128">
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1.558</v>
+        <v>1558</v>
       </c>
       <c r="J128" t="n">
         <v>1</v>
@@ -10696,7 +10696,7 @@
         <v>0.02</v>
       </c>
       <c r="T128" t="n">
-        <v>1.58916</v>
+        <v>1589.16</v>
       </c>
     </row>
     <row r="129">
@@ -10735,7 +10735,7 @@
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1.611</v>
+        <v>1611</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>0.02</v>
       </c>
       <c r="T129" t="n">
-        <v>1.64322</v>
+        <v>1643.22</v>
       </c>
     </row>
     <row r="130">
@@ -10815,7 +10815,7 @@
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1.894</v>
+        <v>1894</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
@@ -10856,7 +10856,7 @@
         <v>0.02</v>
       </c>
       <c r="T130" t="n">
-        <v>1.93188</v>
+        <v>1931.88</v>
       </c>
     </row>
     <row r="131">
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2.36</v>
+        <v>2360</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
@@ -10936,7 +10936,7 @@
         <v>0.02</v>
       </c>
       <c r="T131" t="n">
-        <v>2.4072</v>
+        <v>2407.2</v>
       </c>
     </row>
     <row r="132">
@@ -10975,7 +10975,7 @@
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2.172</v>
+        <v>2172</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -11016,7 +11016,7 @@
         <v>0.02</v>
       </c>
       <c r="T132" t="n">
-        <v>2.21544</v>
+        <v>2215.44</v>
       </c>
     </row>
     <row r="133">
@@ -11055,7 +11055,7 @@
         </is>
       </c>
       <c r="I133" t="n">
-        <v>2.107</v>
+        <v>2107</v>
       </c>
       <c r="J133" t="n">
         <v>1</v>
@@ -11096,7 +11096,7 @@
         <v>0.02</v>
       </c>
       <c r="T133" t="n">
-        <v>2.14914</v>
+        <v>2149.14</v>
       </c>
     </row>
     <row r="134">
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2.629</v>
+        <v>2629</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
@@ -11176,7 +11176,7 @@
         <v>0.02</v>
       </c>
       <c r="T134" t="n">
-        <v>2.68158</v>
+        <v>2681.58</v>
       </c>
     </row>
     <row r="135">
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2.371</v>
+        <v>2371</v>
       </c>
       <c r="J135" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>0.02</v>
       </c>
       <c r="T135" t="n">
-        <v>2.41842</v>
+        <v>2418.42</v>
       </c>
     </row>
     <row r="136">
@@ -11295,7 +11295,7 @@
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1.832</v>
+        <v>1832</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
@@ -11336,7 +11336,7 @@
         <v>0.02</v>
       </c>
       <c r="T136" t="n">
-        <v>1.86864</v>
+        <v>1868.64</v>
       </c>
     </row>
     <row r="137">
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1.971</v>
+        <v>1971</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
@@ -11416,7 +11416,7 @@
         <v>0.02</v>
       </c>
       <c r="T137" t="n">
-        <v>2.01042</v>
+        <v>2010.42</v>
       </c>
     </row>
     <row r="138">
@@ -11455,7 +11455,7 @@
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1.699</v>
+        <v>1699</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -11496,7 +11496,7 @@
         <v>0.02</v>
       </c>
       <c r="T138" t="n">
-        <v>1.73298</v>
+        <v>1732.98</v>
       </c>
     </row>
   </sheetData>
